--- a/DesignerConfigs/Datas/test/tag_switch.xlsx
+++ b/DesignerConfigs/Datas/test/tag_switch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\tag_datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17922FCB-E7CE-4172-9ABD-66923DBEA0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3D123B-2AB3-4301-9E43-FA1CC97439BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="1350" windowWidth="24120" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32265" yWindow="3285" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TbGlobalConfig" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>##</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>unlock_equip</t>
   </si>
@@ -35,10 +32,6 @@
   </si>
   <si>
     <t>英雄解锁等级</t>
-  </si>
-  <si>
-    <t>orientation=c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dev1</t>
@@ -46,6 +39,27 @@
   </si>
   <si>
     <t>dev2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>##</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>column</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -53,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,6 +84,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -99,7 +121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -107,6 +129,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -384,69 +409,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
         <v>200</v>
       </c>
     </row>
